--- a/LJL_JAPAN_2019.xlsx
+++ b/LJL_JAPAN_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB4FE00-F76E-49D8-AB45-5F05711D4902}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6072D9-C3D8-47FC-A142-250EF7A2A684}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="11">
   <si>
     <t>Winner</t>
   </si>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -228,16 +228,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +577,7 @@
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
     </row>
@@ -594,7 +588,7 @@
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
     </row>
@@ -605,7 +599,7 @@
       <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
     </row>
@@ -616,7 +610,7 @@
       <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
     </row>
@@ -627,7 +621,7 @@
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="13">
         <v>1</v>
       </c>
     </row>
@@ -638,7 +632,7 @@
       <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="8">
         <v>2</v>
       </c>
     </row>
@@ -649,7 +643,7 @@
       <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="10">
         <v>2</v>
       </c>
     </row>
@@ -660,7 +654,7 @@
       <c r="B12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="10">
         <v>2</v>
       </c>
     </row>
@@ -671,7 +665,7 @@
       <c r="B13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="10">
         <v>2</v>
       </c>
     </row>
@@ -682,7 +676,7 @@
       <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="10">
         <v>2</v>
       </c>
     </row>
@@ -693,7 +687,7 @@
       <c r="B15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="10">
         <v>2</v>
       </c>
     </row>
@@ -704,7 +698,7 @@
       <c r="B16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="10">
         <v>2</v>
       </c>
     </row>
@@ -715,7 +709,7 @@
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
     </row>
@@ -726,7 +720,7 @@
       <c r="B18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="8">
         <v>3</v>
       </c>
     </row>
@@ -737,7 +731,7 @@
       <c r="B19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="10">
         <v>3</v>
       </c>
     </row>
@@ -748,7 +742,7 @@
       <c r="B20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="10">
         <v>3</v>
       </c>
     </row>
@@ -759,7 +753,7 @@
       <c r="B21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="10">
         <v>3</v>
       </c>
     </row>
@@ -770,7 +764,7 @@
       <c r="B22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="10">
         <v>3</v>
       </c>
     </row>
@@ -781,7 +775,7 @@
       <c r="B23" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="10">
         <v>3</v>
       </c>
     </row>
@@ -792,7 +786,7 @@
       <c r="B24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="10">
         <v>3</v>
       </c>
     </row>
@@ -803,7 +797,7 @@
       <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="13">
         <v>3</v>
       </c>
     </row>
@@ -814,7 +808,7 @@
       <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="8">
         <v>4</v>
       </c>
     </row>
@@ -825,7 +819,7 @@
       <c r="B27" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="10">
         <v>4</v>
       </c>
     </row>
@@ -836,7 +830,7 @@
       <c r="B28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="10">
         <v>4</v>
       </c>
     </row>
@@ -847,7 +841,7 @@
       <c r="B29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="10">
         <v>4</v>
       </c>
     </row>
@@ -858,7 +852,7 @@
       <c r="B30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="10">
         <v>4</v>
       </c>
     </row>
@@ -869,7 +863,7 @@
       <c r="B31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="10">
         <v>4</v>
       </c>
     </row>
@@ -880,7 +874,7 @@
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="13">
         <v>4</v>
       </c>
     </row>
@@ -891,7 +885,7 @@
       <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="8">
         <v>5</v>
       </c>
     </row>
@@ -902,7 +896,7 @@
       <c r="B34" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="10">
         <v>5</v>
       </c>
     </row>
@@ -913,7 +907,7 @@
       <c r="B35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="10">
         <v>5</v>
       </c>
     </row>
@@ -924,7 +918,7 @@
       <c r="B36" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="10">
         <v>5</v>
       </c>
     </row>
@@ -935,7 +929,7 @@
       <c r="B37" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1001,7 +995,7 @@
       <c r="B43" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1012,7 +1006,7 @@
       <c r="B44" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1023,7 +1017,7 @@
       <c r="B45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1056,7 +1050,7 @@
       <c r="B48" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="8">
         <v>7</v>
       </c>
     </row>
@@ -1067,7 +1061,7 @@
       <c r="B49" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1078,7 +1072,7 @@
       <c r="B50" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1089,7 +1083,7 @@
       <c r="B51" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1100,7 +1094,7 @@
       <c r="B52" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1111,7 +1105,7 @@
       <c r="B53" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1144,7 +1138,7 @@
       <c r="B56" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1155,7 +1149,7 @@
       <c r="B57" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1166,7 +1160,7 @@
       <c r="B58" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1177,7 +1171,7 @@
       <c r="B59" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1188,7 +1182,7 @@
       <c r="B60" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1199,7 +1193,7 @@
       <c r="B61" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1207,7 +1201,7 @@
       <c r="A62" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="10">
@@ -1232,7 +1226,7 @@
       <c r="B64" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="8">
         <v>9</v>
       </c>
     </row>
@@ -1240,10 +1234,10 @@
       <c r="A65" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22">
+      <c r="B65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1251,10 +1245,10 @@
       <c r="A66" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="22">
+      <c r="B66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1262,10 +1256,10 @@
       <c r="A67" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="22">
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1273,10 +1267,10 @@
       <c r="A68" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="22">
+      <c r="B68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1284,10 +1278,10 @@
       <c r="A69" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="22">
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1309,7 +1303,7 @@
       <c r="B71" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1317,10 +1311,10 @@
       <c r="A72" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="22">
+      <c r="B72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1328,10 +1322,10 @@
       <c r="A73" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="22">
+      <c r="B73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1339,10 +1333,10 @@
       <c r="A74" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="22">
+      <c r="B74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1350,10 +1344,10 @@
       <c r="A75" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="22">
+      <c r="B75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1361,10 +1355,10 @@
       <c r="A76" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="22">
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1372,10 +1366,10 @@
       <c r="A77" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="22">
+      <c r="B77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1383,10 +1377,10 @@
       <c r="A78" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="22">
+      <c r="B78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1394,10 +1388,10 @@
       <c r="A79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="22">
+      <c r="B79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1405,10 +1399,10 @@
       <c r="A80" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="22">
+      <c r="B80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1416,10 +1410,10 @@
       <c r="A81" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="22">
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1427,10 +1421,10 @@
       <c r="A82" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="22">
+      <c r="B82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1438,10 +1432,10 @@
       <c r="A83" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="22">
+      <c r="B83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="10">
         <v>10</v>
       </c>
     </row>
@@ -1452,137 +1446,140 @@
       <c r="B84" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="20"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="19"/>
+      <c r="A85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="19">
+        <v>-1</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="19"/>
+      <c r="A86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="19">
+        <v>-1</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="19"/>
+      <c r="A87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="19">
+        <v>-1</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="19"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="19"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="19"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="19"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="19"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="19"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="19"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="19"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="19"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="19"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="19"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="19"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="19"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="19"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="19"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
     </row>

--- a/LJL_JAPAN_2019.xlsx
+++ b/LJL_JAPAN_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6072D9-C3D8-47FC-A142-250EF7A2A684}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E20071-5A92-4A77-B791-C64D010886F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="11">
   <si>
     <t>Winner</t>
   </si>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -232,6 +232,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1451,21 +1456,21 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="19">
+      <c r="A85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="20">
         <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="3" t="s">
+      <c r="A86" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="19">
@@ -1473,10 +1478,10 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="3" t="s">
+      <c r="A87" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="19">
@@ -1484,16 +1489,37 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="19">
+        <v>-1</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="A89" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="22">
+        <v>-1</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
